--- a/data/all-valid-cards.xlsx
+++ b/data/all-valid-cards.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Vehicles" sheetId="1" r:id="rId1"/>
     <sheet name="Crew" sheetId="2" r:id="rId2"/>
     <sheet name="Upgrades" sheetId="4" r:id="rId3"/>
+    <sheet name="Actions" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Crew!$A$1:$I$411</definedName>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="67">
   <si>
     <t>UPGRADE</t>
   </si>
@@ -55,6 +56,177 @@
   </si>
   <si>
     <t>Done</t>
+  </si>
+  <si>
+    <t>Stop the Bidding</t>
+  </si>
+  <si>
+    <t>End the current Auction round.</t>
+  </si>
+  <si>
+    <t>Continue the auction</t>
+  </si>
+  <si>
+    <t>Add 1 Auction round</t>
+  </si>
+  <si>
+    <t>Cancel</t>
+  </si>
+  <si>
+    <t>Interrupt another action card</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Special Ability</t>
+  </si>
+  <si>
+    <t>Change Route</t>
+  </si>
+  <si>
+    <t>Short Track</t>
+  </si>
+  <si>
+    <t>Long Race</t>
+  </si>
+  <si>
+    <t>Linear / Lap</t>
+  </si>
+  <si>
+    <t>Garage Bonus: Upgrade</t>
+  </si>
+  <si>
+    <t>Store 1 extra Upgrade in your garage.</t>
+  </si>
+  <si>
+    <t>Garage Bonus: Crew</t>
+  </si>
+  <si>
+    <t>Store 1 extra Crew in your garage.</t>
+  </si>
+  <si>
+    <t>Garage Bonus: Vehicle</t>
+  </si>
+  <si>
+    <t>Store 1 extra Vehicle in you garage.</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Auction</t>
+  </si>
+  <si>
+    <t>Upgrade</t>
+  </si>
+  <si>
+    <t>Warp drive</t>
+  </si>
+  <si>
+    <t>Skip 1 checkpoint.  Usable once per race.</t>
+  </si>
+  <si>
+    <t>Wormhole</t>
+  </si>
+  <si>
+    <t>Skip 1 checkpoint. Discard after use.</t>
+  </si>
+  <si>
+    <t>Race</t>
+  </si>
+  <si>
+    <t>Swap 2 adjacent checkpoints</t>
+  </si>
+  <si>
+    <t>Remove 1 checkpoint from the race</t>
+  </si>
+  <si>
+    <t>Add 1 checkpoint to the race</t>
+  </si>
+  <si>
+    <t>Change the race to a lap race or linear as appropriate.</t>
+  </si>
+  <si>
+    <t>Usable in Phases</t>
+  </si>
+  <si>
+    <t>Any</t>
+  </si>
+  <si>
+    <t>Race Prep, Race</t>
+  </si>
+  <si>
+    <t>Race Prep, Auction</t>
+  </si>
+  <si>
+    <t>Trap</t>
+  </si>
+  <si>
+    <t>Meteor Strike</t>
+  </si>
+  <si>
+    <t>Damage B/S.</t>
+  </si>
+  <si>
+    <t>1200' Ball of Ice</t>
+  </si>
+  <si>
+    <t>EMP Mine</t>
+  </si>
+  <si>
+    <t>Lose 1 turn</t>
+  </si>
+  <si>
+    <t>Countermeasures</t>
+  </si>
+  <si>
+    <t>Negate 1 trap.  Usable once per race.</t>
+  </si>
+  <si>
+    <t>Chaff</t>
+  </si>
+  <si>
+    <t>Negate 1 trap.  Discard after use.</t>
+  </si>
+  <si>
+    <t>Booster Rocket</t>
+  </si>
+  <si>
+    <t>Increase E by X for 1 round.  Discard after use.</t>
+  </si>
+  <si>
+    <t>Repair</t>
+  </si>
+  <si>
+    <t>Repair all damage to 1 stat. Discard after use.</t>
+  </si>
+  <si>
+    <t>Warp Trap</t>
+  </si>
+  <si>
+    <t>Move player back 1 checkpoint.</t>
+  </si>
+  <si>
+    <t>Steal</t>
+  </si>
+  <si>
+    <t>Industrial Espionage</t>
+  </si>
+  <si>
+    <t>Steal 1 Upgrade from another player's Garage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grand Theft </t>
+  </si>
+  <si>
+    <t>Steal 1 Vehicle from another player's Garage</t>
+  </si>
+  <si>
+    <t>Recruit</t>
+  </si>
+  <si>
+    <t>Steal 1 Crew from another player's Garage</t>
   </si>
 </sst>
 </file>
@@ -143,8 +315,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -155,11 +329,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -16320,9 +16496,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I687"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
-    </sheetView>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -34181,4 +34355,375 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" customWidth="1"/>
+    <col min="3" max="3" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="45" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.5" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="B8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="B23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/data/all-valid-cards.xlsx
+++ b/data/all-valid-cards.xlsx
@@ -4,16 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="-460" windowWidth="28800" windowHeight="18000" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Vehicles" sheetId="1" r:id="rId1"/>
     <sheet name="Crew" sheetId="2" r:id="rId2"/>
     <sheet name="Upgrades" sheetId="4" r:id="rId3"/>
     <sheet name="Actions" sheetId="5" r:id="rId4"/>
+    <sheet name="Track" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Crew!$A$1:$I$411</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Track!$A$1:$F$26</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Vehicles!$A$1:$I$185</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="101">
   <si>
     <t>UPGRADE</t>
   </si>
@@ -193,9 +195,6 @@
     <t>Booster Rocket</t>
   </si>
   <si>
-    <t>Increase E by X for 1 round.  Discard after use.</t>
-  </si>
-  <si>
     <t>Repair</t>
   </si>
   <si>
@@ -227,6 +226,111 @@
   </si>
   <si>
     <t>Steal 1 Crew from another player's Garage</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>Finish</t>
+  </si>
+  <si>
+    <t>Lap</t>
+  </si>
+  <si>
+    <t>Distance</t>
+  </si>
+  <si>
+    <t>Checkpoint</t>
+  </si>
+  <si>
+    <t>Asteroid Belt</t>
+  </si>
+  <si>
+    <t>Black Hole</t>
+  </si>
+  <si>
+    <t>Gas Giant</t>
+  </si>
+  <si>
+    <t>Pulsar</t>
+  </si>
+  <si>
+    <t>Binary System</t>
+  </si>
+  <si>
+    <t>Pirate System</t>
+  </si>
+  <si>
+    <t>Open Space</t>
+  </si>
+  <si>
+    <t>B -1 per round.  Ignore if M&gt;3</t>
+  </si>
+  <si>
+    <t>Time Dilation.  Take another turn.</t>
+  </si>
+  <si>
+    <t>Portable Singularity</t>
+  </si>
+  <si>
+    <t>Take another turn. Discard after use.</t>
+  </si>
+  <si>
+    <t>Black hole box</t>
+  </si>
+  <si>
+    <t>Take another turn. Usable once per race.</t>
+  </si>
+  <si>
+    <t>M -1 per round. Ignore if B&gt;3</t>
+  </si>
+  <si>
+    <t>Discard 1 random card from your hand (does not repeat).  Ignore if E&gt;3</t>
+  </si>
+  <si>
+    <t>E -1 per round. Ignore if S&gt;2</t>
+  </si>
+  <si>
+    <t>B -1 per round. Ignore if E&gt;3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E +1 </t>
+  </si>
+  <si>
+    <t>Gravity Assist</t>
+  </si>
+  <si>
+    <t>E +2 for 1 round.  Discard after use.</t>
+  </si>
+  <si>
+    <t>E +1 for 1 round.  Discard after use.</t>
+  </si>
+  <si>
+    <t>Thin Spacetime</t>
+  </si>
+  <si>
+    <t>Swap E and B values while on this leg.</t>
+  </si>
+  <si>
+    <t>Ignore Environment effect of checkpoint.  Discard after leaving checkpoint.</t>
+  </si>
+  <si>
+    <t>Environmental shielding</t>
+  </si>
+  <si>
+    <t>Don't know yet.</t>
+  </si>
+  <si>
+    <t>2 lap race</t>
+  </si>
+  <si>
+    <t>3 lap race</t>
+  </si>
+  <si>
+    <t>4 lap race</t>
+  </si>
+  <si>
+    <t>Environmental Effect</t>
   </si>
 </sst>
 </file>
@@ -315,8 +419,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
+  <cellStyleXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -329,13 +453,33 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="27">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -34359,10 +34503,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -34641,7 +34785,7 @@
         <v>54</v>
       </c>
       <c r="D19" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="E19" t="s">
         <v>35</v>
@@ -34652,10 +34796,10 @@
         <v>6</v>
       </c>
       <c r="C20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" t="s">
         <v>56</v>
-      </c>
-      <c r="D20" t="s">
-        <v>57</v>
       </c>
       <c r="E20" t="s">
         <v>35</v>
@@ -34666,10 +34810,10 @@
         <v>44</v>
       </c>
       <c r="C21" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" t="s">
         <v>58</v>
-      </c>
-      <c r="D21" t="s">
-        <v>59</v>
       </c>
       <c r="E21" t="s">
         <v>35</v>
@@ -34677,13 +34821,13 @@
     </row>
     <row r="22" spans="2:5">
       <c r="B22" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" t="s">
         <v>60</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>61</v>
-      </c>
-      <c r="D22" t="s">
-        <v>62</v>
       </c>
       <c r="E22" t="s">
         <v>43</v>
@@ -34691,13 +34835,13 @@
     </row>
     <row r="23" spans="2:5">
       <c r="B23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C23" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" t="s">
         <v>63</v>
-      </c>
-      <c r="D23" t="s">
-        <v>64</v>
       </c>
       <c r="E23" t="s">
         <v>43</v>
@@ -34705,16 +34849,72 @@
     </row>
     <row r="24" spans="2:5">
       <c r="B24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" t="s">
         <v>65</v>
-      </c>
-      <c r="D24" t="s">
-        <v>66</v>
       </c>
       <c r="E24" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25" t="s">
+        <v>81</v>
+      </c>
+      <c r="E25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" t="s">
+        <v>83</v>
+      </c>
+      <c r="E26" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" t="s">
+        <v>91</v>
+      </c>
+      <c r="E27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" t="s">
+        <v>94</v>
+      </c>
+      <c r="E28" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -34726,4 +34926,445 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="59" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="B2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="B3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="B4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="B5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="B8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="B9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="B10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="B11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="B12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="B13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="B14" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="B15" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="B16" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20">
+        <v>6</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" t="s">
+        <v>92</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>67</v>
+      </c>
+      <c r="D22">
+        <v>4</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23">
+        <v>4</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26">
+        <v>4</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:F26">
+    <sortState ref="A2:F26">
+      <sortCondition ref="B1:B26"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>